--- a/datasheet.xlsx
+++ b/datasheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="103">
   <si>
     <t xml:space="preserve">idcarrera</t>
   </si>
@@ -271,10 +271,10 @@
     <t xml:space="preserve">Profesores</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carrera – Universidad</t>
+    <t xml:space="preserve">correo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrera </t>
   </si>
   <si>
     <t xml:space="preserve">Materias a cargo</t>
@@ -286,55 +286,40 @@
     <t xml:space="preserve">profesor1@email.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectura de compu.</t>
+    <t xml:space="preserve">Arquitectura de computadoras</t>
   </si>
   <si>
     <t xml:space="preserve">profesor2@email.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Física </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química</t>
+  </si>
+  <si>
     <t xml:space="preserve">profesor3</t>
   </si>
   <si>
     <t xml:space="preserve">profesor4</t>
   </si>
   <si>
+    <t xml:space="preserve">Física</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistemas de Representación</t>
+  </si>
+  <si>
     <t xml:space="preserve">profesor5</t>
   </si>
   <si>
     <t xml:space="preserve">profesor6</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingeniería informática</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profesor7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arquitectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sist. Representación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profesor8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adm de proyectos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profesor9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profesor10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ing Textil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profesor11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Termodinámica</t>
+    <t xml:space="preserve">Ingeniería Informática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista Sistemas</t>
   </si>
   <si>
     <t xml:space="preserve">materia</t>
@@ -361,6 +346,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -381,17 +367,20 @@
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -500,7 +489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -529,136 +518,160 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -755,10 +768,10 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.64"/>
@@ -811,7 +824,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
@@ -881,44 +894,44 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -959,47 +972,47 @@
       <c r="N12" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1099,7 +1112,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
@@ -1158,7 +1171,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="6"/>
@@ -1500,15 +1513,15 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="10"/>
@@ -1516,16 +1529,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1545,7 +1558,7 @@
       <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1554,7 +1567,7 @@
       <c r="D3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1562,7 +1575,7 @@
       <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1571,7 +1584,7 @@
       <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1579,7 +1592,7 @@
       <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1588,7 +1601,7 @@
       <c r="D5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1596,7 +1609,7 @@
       <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1605,7 +1618,7 @@
       <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1613,7 +1626,7 @@
       <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1622,7 +1635,7 @@
       <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1630,7 +1643,7 @@
       <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1639,7 +1652,7 @@
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1647,7 +1660,7 @@
       <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1656,7 +1669,7 @@
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1664,7 +1677,7 @@
       <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1673,7 +1686,7 @@
       <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1681,7 +1694,7 @@
       <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1690,7 +1703,7 @@
       <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1698,7 +1711,7 @@
       <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -1707,7 +1720,7 @@
       <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1715,7 +1728,7 @@
       <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1724,7 +1737,7 @@
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1732,7 +1745,7 @@
       <c r="A14" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1741,7 +1754,7 @@
       <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1749,7 +1762,7 @@
       <c r="A15" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1758,7 +1771,7 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1766,7 +1779,7 @@
       <c r="A16" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1775,7 +1788,7 @@
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1783,7 +1796,7 @@
       <c r="A17" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1792,41 +1805,41 @@
       <c r="D17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1834,19 +1847,19 @@
       <c r="A21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1854,103 +1867,103 @@
       <c r="A22" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1958,97 +1971,97 @@
       <c r="A28" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2059,51 +2072,51 @@
       <c r="A34" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2149,7 +2162,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -2162,745 +2175,989 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="21.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="7" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="10.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="63" min="6" style="6" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="E4" s="6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37" t="n">
+        <v>17</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="F8" s="0"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="39" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="E22" s="6" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="n">
-        <v>17</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
+      <c r="B25" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="n">
-        <v>20</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
-        <v>21</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="n">
-        <v>22</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>3</v>
+      <c r="E26" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>10</v>
-      </c>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="n">
-        <v>24</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>6</v>
-      </c>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>7</v>
-      </c>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>11</v>
-      </c>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="36" t="n">
-        <v>25</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="36"/>
       <c r="D34" s="36"/>
-      <c r="E34" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="6" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="n">
-        <v>26</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="6" t="n">
-        <v>12</v>
-      </c>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="6" t="n">
-        <v>5</v>
-      </c>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="38"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="38"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="38"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="38"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="38"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="38"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="44"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="38"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="44"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="38"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="38"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="44"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="38"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="44"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="38"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="38"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="44"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="38"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="44"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="38"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="44"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="38"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="44"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="38"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="44"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="38"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="44"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="38"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="44"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="38"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="44"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="38"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="44"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="39"/>
-      <c r="D61" s="39"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11 A3:C7">
+  <conditionalFormatting sqref="A5:B7 A4:C4 B11:B12 C6 H5">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="profesor1@email.com"/>
-    <hyperlink ref="B5" r:id="rId2" display="profesor2@email.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="profesor1@email.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="profesor2@email.com"/>
+    <hyperlink ref="B24" r:id="rId3" display="profesor1@email.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -2919,7 +3176,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
@@ -2927,14 +3184,14 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>105</v>
+      <c r="C2" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +3210,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>1</v>
@@ -2964,7 +3221,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>1</v>
@@ -3052,7 +3309,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
